--- a/Income/ROP_inc.xlsx
+++ b/Income/ROP_inc.xlsx
@@ -2238,7 +2238,7 @@
         <v>0.3766</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3838</v>
+        <v>0.3839</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.3891</v>
@@ -2368,7 +2368,7 @@
         <v>0.2974</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.3016</v>
+        <v>0.3017</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.3294</v>
@@ -2489,7 +2489,7 @@
         <v>0.2671</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2531</v>
+        <v>0.2532</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.3021</v>
@@ -2498,7 +2498,7 @@
         <v>0.2725</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2606</v>
+        <v>0.2607</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2604</v>
@@ -3505,16 +3505,16 @@
         <v>0.3534</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.3548</v>
+        <v>0.3556</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.3547</v>
+        <v>0.3555</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.357</v>
+        <v>0.3578</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.3572</v>
+        <v>0.3581</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.3486</v>
